--- a/Colorado/Overlays/COov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Colorado/Overlays/COov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE342591-D38B-410B-AD41-00FAE58B6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278D6EC-B22B-408C-A8E0-E3F1600357AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="RegulatoryOverlayBridge_sites" sheetId="17" r:id="rId7"/>
     <sheet name="misc" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,63 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="167">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>WaDE 2.0 Example</t>
-  </si>
-  <si>
-    <t>State:</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Organizations:</t>
-  </si>
-  <si>
-    <t>Division of Water Resources</t>
-  </si>
-  <si>
-    <t>Utah Division of Water Rights</t>
-  </si>
-  <si>
-    <t>Describe the Data:</t>
-  </si>
-  <si>
-    <t>Ground Water Management Districts</t>
-  </si>
-  <si>
-    <t>POD Withdrawl data.</t>
-  </si>
-  <si>
-    <t>Data Links:</t>
-  </si>
-  <si>
-    <t>https://cdss.colorado.gov/gis-data/gis-data-by-category</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Unanswered Questions:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Dtype</t>
-  </si>
-  <si>
-    <t>1:N</t>
   </si>
   <si>
     <t>Null?</t>
@@ -108,25 +54,16 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Hard Coded Value / Note</t>
+    <t>Notes</t>
   </si>
   <si>
-    <t>State Web Feature Service / File Input Name</t>
-  </si>
-  <si>
-    <t>State Field Name</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>WaDE 2.0 Example</t>
   </si>
   <si>
     <t>WaDE 2.0 Definition</t>
   </si>
   <si>
-    <t>DateID</t>
-  </si>
-  <si>
-    <t>BigInt</t>
+    <t>bigint</t>
   </si>
   <si>
     <t>-</t>
@@ -135,58 +72,322 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Internal unique identifier integer for date information.</t>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>OrganizationID</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>OrganizationUUID</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>nvarchar(250)</t>
+  </si>
+  <si>
+    <t>NVarChar(250)</t>
+  </si>
+  <si>
+    <t>NVarChar(100)</t>
+  </si>
+  <si>
+    <t>StateCV</t>
+  </si>
+  <si>
+    <t>EPSGCodeCV</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>BigInt</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>OrganizationContactEmail</t>
+  </si>
+  <si>
+    <t>OrganizationContactName</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>OrganizationPhoneNumber</t>
+  </si>
+  <si>
+    <t>OrganizationPurview</t>
+  </si>
+  <si>
+    <t>OrganizationWebsite</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>nvarchar(2)</t>
+  </si>
+  <si>
+    <t>State:</t>
+  </si>
+  <si>
+    <t>Data Links:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>NChar(4)</t>
+  </si>
+  <si>
+    <t>NVarChar(500)</t>
+  </si>
+  <si>
+    <t>ReportingUnitID</t>
+  </si>
+  <si>
+    <t>Internal unique identifier</t>
+  </si>
+  <si>
+    <t>ReportingUnitUUID</t>
+  </si>
+  <si>
+    <t>NVarChar(50)</t>
+  </si>
+  <si>
+    <t>POLYGON((-99.54319297853704 37.15853229006052, -97.26976797641987 37.15759429005948, -105.11636298372741 37.14764529005038, -104.52740598317905 37.15119229005359, -104.09963198278069 37.15376929005606, -103.56062798227867 37.156443290058405, -103.12301898187116 37.157137290059154, -103.08639398183686 37.15689329005886, -103.00203898175846 37.156332290058344, -99.90287697887197 37.162385290064094, -99.54319297853704 37.15853229006052))</t>
+  </si>
+  <si>
+    <t>ReportingUnitName</t>
+  </si>
+  <si>
+    <t>BRAZOS</t>
+  </si>
+  <si>
+    <t>ReportingUnitNativeID</t>
+  </si>
+  <si>
+    <t>ReportingUnitProductVersion</t>
+  </si>
+  <si>
+    <t>ReportingUnitTypeCV</t>
+  </si>
+  <si>
+    <t>NVarChar(20)</t>
+  </si>
+  <si>
+    <t>ReportingUnitUpdateDate</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>10/1/2013</t>
+    <t>12/5/2019</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>TX</t>
   </si>
   <si>
-    <t>NChar(4)</t>
+    <t>RegulatoryOverlayID</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>RegulatoryOverlayUUID</t>
+  </si>
+  <si>
+    <t>RegulatoryOverlayNativeID</t>
+  </si>
+  <si>
+    <t>RegulatoryName</t>
+  </si>
+  <si>
+    <t>RegulatoryDescription</t>
+  </si>
+  <si>
+    <t>NVarChar(MAX)</t>
+  </si>
+  <si>
+    <t>RegulatoryStatusCV</t>
+  </si>
+  <si>
+    <t>OversightAgency</t>
+  </si>
+  <si>
+    <t>RegulatoryStatute</t>
+  </si>
+  <si>
+    <t>RegulatoryStatuteLink</t>
+  </si>
+  <si>
+    <t>StatutoryEffectiveDate</t>
+  </si>
+  <si>
+    <t>StatutoryEndDate</t>
+  </si>
+  <si>
+    <t>DateID</t>
   </si>
   <si>
     <t>Help query all water allocations per a calander year. E.g., how many water allocations files in Utah per year since 1850</t>
   </si>
   <si>
-    <t>*Simple, Create this file by hand</t>
+    <t>BridgeID</t>
+  </si>
+  <si>
+    <t>10/1/2013</t>
+  </si>
+  <si>
+    <t>CPNRD</t>
+  </si>
+  <si>
+    <t>Central Platte NRD</t>
+  </si>
+  <si>
+    <t>RegulatoryOverlayTypeCV</t>
+  </si>
+  <si>
+    <t>WaterSourceTypeCV</t>
+  </si>
+  <si>
+    <t>Foreign key unique identifier to RegulatoryOverlay_dim table.</t>
+  </si>
+  <si>
+    <t>The name of the agency / governing body providing oversight for the regulation.</t>
+  </si>
+  <si>
+    <t>A description of the regulation.</t>
+  </si>
+  <si>
+    <t>The name of the regulation.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the regulatory overlay area in the source data.</t>
+  </si>
+  <si>
+    <t>The high level description of the regulatory overlaytype recognized by the data provider.</t>
+  </si>
+  <si>
+    <t>Status of the regulation (e.g., initiated, in effect, efc.).</t>
+  </si>
+  <si>
+    <t>Legal statute(s) ID / name related to the regulation (e.g., 56-78134).</t>
+  </si>
+  <si>
+    <t>A link to the legal statute(s) related to the regulation (e.g., https://le.utah.gov/xcode/code.html).</t>
+  </si>
+  <si>
+    <t>The start date of the legal statute(s) began.  Format of MM/DD/YYYY.</t>
+  </si>
+  <si>
+    <t>The end date of the legal statute(s) ends.  Format of MM/DD/YYYY.</t>
+  </si>
+  <si>
+    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
+  </si>
+  <si>
+    <t>Primary key unique identifier to RegulatoryOverlay_dim table.</t>
+  </si>
+  <si>
+    <t>Date that this data was published by the data provider to the public.</t>
+  </si>
+  <si>
+    <t>Foreign key unique identifier to Organization_dim table.</t>
+  </si>
+  <si>
+    <t>Foreign key unique identifier to ReportingUnits_dim table.</t>
+  </si>
+  <si>
+    <t>EPSG Code for projection used for WaDE (e.g.,  EPSG:4326).</t>
+  </si>
+  <si>
+    <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
+  </si>
+  <si>
+    <t>Recognized name of the data reporting area by the data provider.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the reporting area in the source data set.</t>
+  </si>
+  <si>
+    <t>The product version of the reporting area (e.g., ver 1, 2, etc).  Similar to ReportingUnitTypeCV.</t>
+  </si>
+  <si>
+    <t>The high level description of the reporting area type recognized by the data provider (e.g., HUC, County, Basin, etc.).</t>
+  </si>
+  <si>
+    <t>Date that the ReportingUnitProductVersion was released.</t>
+  </si>
+  <si>
+    <t>Two digit state abbreviation where the data site is.</t>
+  </si>
+  <si>
+    <t>Primary internal key unique identifier for reporting units records.</t>
+  </si>
+  <si>
+    <t>TXag_RU12</t>
+  </si>
+  <si>
+    <t>RegulatoryOverlayBridgeID</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>Primary internal key unique identifier for site records.</t>
+  </si>
+  <si>
+    <t>Primary internal key unique identifier for the bridge table between regulatory overlay and sites tables.</t>
+  </si>
+  <si>
+    <t>DataPublicationDate</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utah Division of Water Rights</t>
+  </si>
+  <si>
+    <t>POD Withdrawl data.</t>
+  </si>
+  <si>
+    <t>Organizations:</t>
+  </si>
+  <si>
+    <t>Describe the Data:</t>
+  </si>
+  <si>
+    <t>Unanswered Questions:</t>
+  </si>
+  <si>
+    <t>1:N</t>
   </si>
   <si>
     <t>Null</t>
   </si>
   <si>
-    <t>OrganizationID</t>
-  </si>
-  <si>
-    <t>bigint</t>
+    <t>State Field Name</t>
   </si>
   <si>
     <t>Internal unique identifier integer for organizations</t>
   </si>
   <si>
-    <t>OrganizationUUID</t>
-  </si>
-  <si>
-    <t>nvarchar(250)</t>
-  </si>
-  <si>
     <t>UTwr_O1</t>
-  </si>
-  <si>
-    <t>Foreign key unique identifier to Organization_dim table.</t>
-  </si>
-  <si>
-    <t>OrganizationContactEmail</t>
-  </si>
-  <si>
-    <t>Doug.Stenzel@state.co.us</t>
   </si>
   <si>
     <t>craigmiller@utah.gov</t>
@@ -195,19 +396,10 @@
     <t>Email address for the contact person of the organization.</t>
   </si>
   <si>
-    <t>OrganizationContactName</t>
-  </si>
-  <si>
-    <t>Doug Stenzel</t>
-  </si>
-  <si>
     <t>Craig Miller</t>
   </si>
   <si>
     <t>Name of the contact person for the organization.</t>
-  </si>
-  <si>
-    <t>OrganizationName</t>
   </si>
   <si>
     <t>Utah Division of Water Resources</t>
@@ -216,22 +408,10 @@
     <t>Name of the organization (e.g., Utah Division of Water Resources).</t>
   </si>
   <si>
-    <t>OrganizationPhoneNumber</t>
-  </si>
-  <si>
-    <t>(303) 866-3581</t>
-  </si>
-  <si>
     <t>801-538-7280</t>
   </si>
   <si>
     <t>Phone number for the organization contact person. Include area code.</t>
-  </si>
-  <si>
-    <t>OrganizationPurview</t>
-  </si>
-  <si>
-    <t>Water Management</t>
   </si>
   <si>
     <t>Water Planning</t>
@@ -240,310 +420,136 @@
     <t>A description of the purview of the agency (e.g., water rights, consumptive use, etc.).</t>
   </si>
   <si>
-    <t>OrganizationWebsite</t>
-  </si>
-  <si>
-    <t>https://dwr.colorado.gov/</t>
-  </si>
-  <si>
     <t>https://water.utah.gov/</t>
   </si>
   <si>
     <t>A hyperlink back to the organization's website. Include https:// header and trailing forward slash.</t>
   </si>
   <si>
-    <t>State</t>
+    <t>Two digit state abbreviation where the organization is.</t>
   </si>
   <si>
-    <t>nvarchar(2)</t>
+    <t>Internal unique identifier integer for date information.</t>
   </si>
   <si>
-    <t>FK</t>
+    <t>Hard Coded Value / Note</t>
+  </si>
+  <si>
+    <t>NMre_ROSCWR15</t>
+  </si>
+  <si>
+    <t>WaDE Unspecified</t>
+  </si>
+  <si>
+    <t>No new groundwater wells, with the exception of remediation and monitoring wells, shall be permitted within the area surrounding the site's contaminated groundwater.</t>
+  </si>
+  <si>
+    <t>AT&amp;SF ABQ Superfund Site</t>
+  </si>
+  <si>
+    <t>SCWR15</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Special Condition Water Right</t>
+  </si>
+  <si>
+    <t>Surface Water and Groundwater</t>
+  </si>
+  <si>
+    <t>State Web Feature Service / File Input Name</t>
+  </si>
+  <si>
+    <t>*This file created automatically with python scripts.</t>
+  </si>
+  <si>
+    <t>*Create organization.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create date.csv file by hand</t>
+  </si>
+  <si>
+    <t>GIS data download: https://cdss.colorado.gov/gis-data/gis-data-by-category</t>
+  </si>
+  <si>
+    <t>Designated Basins (for groundwater) info: https://dwr.colorado.gov/services/well-permitting/designated-basins</t>
+  </si>
+  <si>
+    <t>Divisions info: https://dwr.colorado.gov/division-offices</t>
+  </si>
+  <si>
+    <t>Doug.Stenzel@state.co.us</t>
+  </si>
+  <si>
+    <t>Doug Stenzel</t>
+  </si>
+  <si>
+    <t>Colorado Division of Water Resources</t>
+  </si>
+  <si>
+    <t>(303) 866-3581</t>
+  </si>
+  <si>
+    <t>Water Management</t>
+  </si>
+  <si>
+    <t>https://dwr.colorado.gov/</t>
   </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Two digit state abbreviation where the organization is.</t>
+    <t>COov_O1</t>
   </si>
   <si>
-    <t>ReportingUnitID</t>
+    <t>COov_RU + ReportingUnitNativeID</t>
   </si>
   <si>
-    <t>Primary internal key unique identifier for reporting units records.</t>
+    <t>geometry</t>
   </si>
   <si>
-    <t>ReportingUnitUUID</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
-    <t>TXag_RU12</t>
-  </si>
-  <si>
-    <t>Foreign key unique identifier to ReportingUnits_dim table.</t>
-  </si>
-  <si>
-    <t>EPSGCodeCV</t>
-  </si>
-  <si>
-    <t>NVarChar(50)</t>
-  </si>
-  <si>
-    <t>EPSG Code for projection used for WaDE (e.g.,  EPSG:4326).</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>POLYGON((-99.54319297853704 37.15853229006052, -97.26976797641987 37.15759429005948, -105.11636298372741 37.14764529005038, -104.52740598317905 37.15119229005359, -104.09963198278069 37.15376929005606, -103.56062798227867 37.156443290058405, -103.12301898187116 37.157137290059154, -103.08639398183686 37.15689329005886, -103.00203898175846 37.156332290058344, -99.90287697887197 37.162385290064094, -99.54319297853704 37.15853229006052))</t>
-  </si>
-  <si>
-    <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
-  </si>
-  <si>
-    <t>ReportingUnitName</t>
-  </si>
-  <si>
-    <t>NVarChar(250)</t>
-  </si>
-  <si>
-    <t>Groundwater_Management_Districts</t>
-  </si>
-  <si>
-    <t>MD_NAME</t>
-  </si>
-  <si>
-    <t>BRAZOS</t>
-  </si>
-  <si>
-    <t>Recognized name of the data reporting area by the data provider.</t>
-  </si>
-  <si>
-    <t>ReportingUnitNativeID</t>
-  </si>
-  <si>
-    <t>Unique identifier code / ID used by the data provider to distinguish the reporting area in the source data set.</t>
-  </si>
-  <si>
-    <t>ReportingUnitProductVersion</t>
-  </si>
-  <si>
-    <t>NVarChar(100)</t>
-  </si>
-  <si>
-    <t>The product version of the reporting area (e.g., ver 1, 2, etc).  Similar to ReportingUnitTypeCV.</t>
-  </si>
-  <si>
-    <t>ReportingUnitTypeCV</t>
-  </si>
-  <si>
-    <t>NVarChar(20)</t>
-  </si>
-  <si>
-    <t>Groundwater Management Districts</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>The high level description of the reporting area type recognized by the data provider (e.g., HUC, County, Basin, etc.).</t>
-  </si>
-  <si>
-    <t>ReportingUnitUpdateDate</t>
-  </si>
-  <si>
-    <t>12/5/2019</t>
-  </si>
-  <si>
-    <t>Date that the ReportingUnitProductVersion was released.</t>
-  </si>
-  <si>
-    <t>StateCV</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Two digit state abbreviation where the data site is.</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayID</t>
-  </si>
-  <si>
-    <t>Primary key unique identifier to RegulatoryOverlay_dim table.</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayUUID</t>
-  </si>
-  <si>
-    <t>NMre_ROSCWR15</t>
-  </si>
-  <si>
-    <t>Foreign key unique identifier to RegulatoryOverlay_dim table.</t>
-  </si>
-  <si>
-    <t>OversightAgency</t>
-  </si>
-  <si>
-    <t>WaDE Unspecified</t>
-  </si>
-  <si>
-    <t>The name of the agency / governing body providing oversight for the regulation.</t>
-  </si>
-  <si>
-    <t>RegulatoryDescription</t>
-  </si>
-  <si>
-    <t>NVarChar(MAX)</t>
-  </si>
-  <si>
-    <t>administers water rights, issues water well permits, represents Colorado in interstate water compact proceedings, monitors streamflow and water use, approves construction and repair of dams and performs dam safety inspections, issues licenses for well drillers and assures the safe and proper construction of water wells, and maintains numerous databases of Colorado water information</t>
-  </si>
-  <si>
-    <t>No new groundwater wells, with the exception of remediation and monitoring wells, shall be permitted within the area surrounding the site's contaminated groundwater.</t>
-  </si>
-  <si>
-    <t>A description of the regulation.</t>
-  </si>
-  <si>
-    <t>RegulatoryName</t>
-  </si>
-  <si>
-    <t>AT&amp;SF ABQ Superfund Site</t>
-  </si>
-  <si>
-    <t>The name of the regulation.</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayNativeID</t>
-  </si>
-  <si>
-    <t>SCWR15</t>
-  </si>
-  <si>
-    <t>Unique identifier code / ID used by the data provider to distinguish the regulatory overlay area in the source data.</t>
-  </si>
-  <si>
-    <t>RegulatoryStatusCV</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Status of the regulation (e.g., initiated, in effect, efc.).</t>
-  </si>
-  <si>
-    <t>RegulatoryStatute</t>
-  </si>
-  <si>
-    <t>NVarChar(500)</t>
-  </si>
-  <si>
-    <t>Legal statute(s) ID / name related to the regulation (e.g., 56-78134).</t>
-  </si>
-  <si>
-    <t>RegulatoryStatuteLink</t>
-  </si>
-  <si>
-    <t>A link to the legal statute(s) related to the regulation (e.g., https://le.utah.gov/xcode/code.html).</t>
-  </si>
-  <si>
-    <t>StatutoryEffectiveDate</t>
-  </si>
-  <si>
-    <t>FORMATION_</t>
-  </si>
-  <si>
-    <t>The start date of the legal statute(s) began.  Format of MM/DD/YYYY.</t>
-  </si>
-  <si>
-    <t>StatutoryEndDate</t>
-  </si>
-  <si>
-    <t>The end date of the legal statute(s) ends.  Format of MM/DD/YYYY.</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayTypeCV</t>
-  </si>
-  <si>
-    <t>Goundater Management District</t>
-  </si>
-  <si>
-    <t>Special Condition Water Right</t>
-  </si>
-  <si>
-    <t>The high level description of the regulatory overlaytype recognized by the data provider.</t>
-  </si>
-  <si>
-    <t>WaterSourceTypeCV</t>
-  </si>
-  <si>
-    <t>Groundwater</t>
-  </si>
-  <si>
-    <t>Surface Water and Groundwater</t>
-  </si>
-  <si>
-    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
-  </si>
-  <si>
-    <t>BridgeID</t>
-  </si>
-  <si>
-    <t>Internal unique identifier</t>
-  </si>
-  <si>
-    <t>DataPublicationDate</t>
-  </si>
-  <si>
-    <t>Date that this data was published by the data provider to the public.</t>
-  </si>
-  <si>
-    <t>CPNRD</t>
-  </si>
-  <si>
-    <t>Central Platte NRD</t>
-  </si>
-  <si>
-    <t>RegulatoryOverlayBridgeID</t>
-  </si>
-  <si>
-    <t>Primary internal key unique identifier for the bridge table between regulatory overlay and sites tables.</t>
-  </si>
-  <si>
-    <t>SiteID</t>
-  </si>
-  <si>
-    <t>Primary internal key unique identifier for site records.</t>
-  </si>
-  <si>
-    <t>*This file created automatically with python scripts.</t>
-  </si>
-  <si>
-    <t>COre_O1</t>
-  </si>
-  <si>
-    <t>COre_RU + OBJECTID</t>
+    <t>Division_Boundaries</t>
   </si>
   <si>
     <t>(blank)</t>
   </si>
   <si>
-    <t>"co" + OBJECTID</t>
+    <t>Division_Boundaries,
+Designated_Basins</t>
   </si>
   <si>
-    <t>COre_RO + OBJECTID</t>
+    <t>BASIN,
+DB_NAME</t>
   </si>
   <si>
-    <t>Colorado Division of Water Resources</t>
+    <t>DIV,
+DB</t>
   </si>
   <si>
-    <t>https://dwr.colorado.gov/services/well-permitting/designated-basins</t>
+    <t>Colorado Water Administration Division,
+Colorado Designated Groundwater Basins</t>
+  </si>
+  <si>
+    <t>Surface Water and Groundwater,
+Groundwater</t>
+  </si>
+  <si>
+    <t>"The Colorado Division of Water Resources Division Offices are located in the seven major river basins throughout the state.  Division Offices employ Water Commissioners to ensure that the water rights priority system is followed, enforcing the decrees and water laws of the State of Colorado.  Other Division Office staff manage use and measurement rules to ensure that Colorado remains in compliance with interstate and interbasin agreements."
+"Designated Groundwater Basins (Designated Basins) are areas in the eastern plains of Colorado with very little surface water where users rely primarily on groundwater as their source of water supply.  Designated groundwater rights are administered separately from water rights outside of the Designated Basins."</t>
+  </si>
+  <si>
+    <t>https://dwr.colorado.gov/division-offices,
+https://dwr.colorado.gov/services/well-permitting/designated-basins</t>
+  </si>
+  <si>
+    <t>*use todays date, too may specical rulings in divisions.
+-</t>
+  </si>
+  <si>
+    <t>-
+FORMATION_</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,18 +706,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -879,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,6 +1046,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,6 +1062,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1218,21 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1257,9 +1249,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1297,7 +1289,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1403,7 +1395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1545,7 +1537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1553,114 +1545,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
+      <c r="A1" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>5</v>
+      <c r="A2" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>8</v>
+      <c r="A3" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>11</v>
+      <c r="A4" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="66"/>
+      <c r="A5" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="C6" s="66"/>
+      <c r="A6" s="71"/>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="71"/>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="66"/>
+      <c r="A8" s="71"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="71"/>
+      <c r="C9" s="70"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="C10" s="66"/>
+      <c r="A10" s="71"/>
+      <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="C11" s="66"/>
+      <c r="A11" s="71"/>
+      <c r="C11" s="70"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="C12" s="66"/>
+      <c r="A12" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="70"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
-        <v>15</v>
+      <c r="A13" s="72"/>
+      <c r="C13" s="70"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="C14" s="70"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="C15" s="70"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="C16" s="70"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{96ED70F6-7F23-41DE-BB3F-83D5694EB370}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1670,15 +1672,15 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="10" bestFit="1" customWidth="1"/>
@@ -1690,132 +1692,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>20</v>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="78" t="s">
-        <v>30</v>
+      <c r="K2" s="82" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
       <c r="H4" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J4" s="55">
         <v>2013</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F7" s="74" t="s">
-        <v>37</v>
+      <c r="F7" s="78" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1855,21 +1857,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1878,355 +1880,355 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="70" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>160</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="123" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="74" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="74" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="123" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>151</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="70" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="70" t="s">
-        <v>73</v>
+        <v>8</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F12" s="74" t="s">
-        <v>37</v>
+      <c r="F12" s="78" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -2258,11 +2260,10 @@
     <sortCondition ref="A5:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{1C8492D5-6C4B-4D44-9285-91E8BF96A482}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{02966489-74E2-491C-A5A5-96C03BBFDFFD}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{17866D34-8671-44A0-9A88-183752C10D30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2272,418 +2273,412 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="51.77734375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="59"/>
-      <c r="I3" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>80</v>
+      <c r="I3" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>87</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="60">
+        <v>8</v>
+      </c>
+      <c r="F4" s="63">
         <v>4326</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="78">
+        <v>8</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="82">
         <v>4326</v>
       </c>
-      <c r="K4" s="78" t="s">
-        <v>83</v>
+      <c r="K4" s="82" t="s">
+        <v>88</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>89</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="82" t="s">
         <v>90</v>
-      </c>
-      <c r="I6" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>92</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="77">
+        <v>8</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="81">
         <v>48001</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>94</v>
+      <c r="K7" s="82" t="s">
+        <v>91</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>162</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="78" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="85"/>
+      <c r="K8" s="82" t="s">
+        <v>92</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="78" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>93</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="117">
-        <v>35309</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>94</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2755,20 +2750,20 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="60.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2776,475 +2771,467 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="107" t="s">
-        <v>20</v>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="110"/>
+      <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>131</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>28</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>115</v>
+        <v>8</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>132</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="156" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>8</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="108" t="s">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>159</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="108" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>163</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>160</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="108" t="s">
-        <v>126</v>
+        <v>8</v>
+      </c>
+      <c r="J7" s="112" t="s">
+        <v>135</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="108" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="J8" s="112" t="s">
+        <v>136</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="48" t="s">
-        <v>133</v>
+      <c r="K10" s="48" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="60" t="s">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>137</v>
-      </c>
       <c r="I11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="109">
+        <v>8</v>
+      </c>
+      <c r="J11" s="113">
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>28</v>
+        <v>157</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="108"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="B14" s="17" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>28</v>
+        <v>162</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="108" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="J14" s="112" t="s">
+        <v>138</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3278,8 +3265,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L12">
     <sortCondition ref="A4:A12"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" display="https://dwr.colorado.gov/division-offices" xr:uid="{2F0FC4D4-0C91-4CA3-93D2-3DB9BBFBC634}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3289,15 +3279,15 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" style="1" customWidth="1"/>
@@ -3309,55 +3299,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="107" t="s">
-        <v>20</v>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="111" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="115" t="s">
-        <v>29</v>
+      <c r="A2" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
@@ -3365,131 +3355,123 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="52">
-        <v>45142</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F3" s="68"/>
       <c r="G3" s="46"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>32</v>
+      <c r="I3" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>67</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>160</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="68"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
-      <c r="I4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>153</v>
+      <c r="I4" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>78</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
-      <c r="I5" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>154</v>
+      <c r="I5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>78</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
-      <c r="I6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>154</v>
+      <c r="I6" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3579,11 +3561,11 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
@@ -3595,117 +3577,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="92" t="s">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>25</v>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98" t="s">
-        <v>156</v>
+      <c r="A2" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="62">
+      <c r="A3" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="98" t="s">
-        <v>110</v>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="65">
+        <v>10</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="62">
+      <c r="A4" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="107"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="65">
         <v>10755</v>
       </c>
-      <c r="J4" s="98" t="s">
-        <v>158</v>
+      <c r="J4" s="102" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="E7" s="74" t="s">
-        <v>159</v>
+      <c r="E7" s="78" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3735,8 +3717,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -3752,7 +3734,7 @@
     <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" x14ac:dyDescent="0.3">
